--- a/outcome_report/2563/wiput888.me หวยไทย 1 พฤศจิกายน 2563 (Responses).xlsx
+++ b/outcome_report/2563/wiput888.me หวยไทย 1 พฤศจิกายน 2563 (Responses).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wiput\Documents\GitHub\rpa-final-project\outcome_report\2563\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\poksu\Documents\Work\KMITL\RPA\After_midterm\RPA_Final_Project\outcome_report\2563\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE417400-141B-42E3-8E6F-0F858B2772BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE885B3-C4F1-4111-A716-BCB22C9ECD12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="5110" windowWidth="28800" windowHeight="15460" xr2:uid="{2B47B1CF-D7F0-4199-84FD-F972C23FAEE9}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{DE73F3A3-2049-4AE3-BA24-89422742B9DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,14 +396,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9251D49F-F853-4E6A-A280-063054DBD139}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4558C234-DDCD-47F6-81D9-2861FDC4F4D9}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,7 +418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -422,10 +426,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>62000</v>
+        <v>372000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -433,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>25000</v>
+        <v>150000</v>
       </c>
     </row>
   </sheetData>
